--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="角色表" sheetId="1" r:id="rId1"/>
-    <sheet name="坐骑表" sheetId="2" r:id="rId2"/>
-    <sheet name="地图表" sheetId="3" r:id="rId3"/>
+    <sheet name="卡牌表" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,6 +24,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -34,59 +36,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
+    <t>green</t>
+  </si>
+  <si>
+    <t>级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,48 +83,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片列数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_row</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_col</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>cuprum</t>
   </si>
 </sst>
 </file>
@@ -490,162 +438,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>80001</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.76400000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>80002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
@@ -655,80 +457,72 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>616</v>
-      </c>
-      <c r="F4" s="1">
-        <v>833</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -738,6 +532,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C34">
+      <formula1>"cuprum,silver,gold"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E66">
+      <formula1>"blue,green,purple,red"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,7 +79,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cuprum</t>
+    <t>美术资源所在AB包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>tid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -438,97 +454,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -536,7 +566,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C34">
       <formula1>"cuprum,silver,gold"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F66">
       <formula1>"blue,green,purple,red"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌表" sheetId="3" r:id="rId1"/>
+    <sheet name="技能宝石表" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +100,22 @@
   </si>
   <si>
     <t>tid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术图标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_icon_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -573,4 +590,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,22 @@
   </si>
   <si>
     <t>技能宝石一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -648,7 +664,51 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌表" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,7 +37,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌一</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源所在AB包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术图标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_icon_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -49,19 +128,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_bg</t>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>战天机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏回春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲛明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒翁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傀儡师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端木雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长生剑客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李铁拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -69,69 +189,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源所在AB包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
+    <t>公孙濯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天机营当代将主，只为在乱世中守护天机阁而存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海鲛人王子，为成为世间最强大的战士，毅然离开族群，独自来到九州追寻武道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>card1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>tid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术图标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_icon_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能宝石一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能宝石二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能宝石三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能宝石四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能宝石五</t>
+  </si>
+  <si>
+    <t>姜悦儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜国小公主，姜王晚年所生的掌上明珠，出身高贵却毫不跋扈，性格单纯可爱，受举国宠爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜国国师、姜王亲弟，当年对王位无意，只身前往海外仙山寻求仙法，后因越国国师司徒翁对姜国的威胁，回到姜国成为国师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐世墨家家主，传承有神鬼莫测的机关术，传闻可一人攻一城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越国国师、邪宗弃徒，小时候被邪宗宗主抱回宗门抚养成人，后因理念不同叛出邪宗，成为越国国师，曾经崇拜长生剑客，后因其灭邪宗而有所怨恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕剑宗大师兄叶长生，长生剑客只剑求长生，一生放荡不羁，酒不离手，曾醉上邪宗，一人一剑屠灭整个邪宗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游历九州的神医苏平安，立志悬壶济世，下至平民百姓，上至王侯将相，均受过其恩惠，一手妙手回春的医术，人们尊称其为“苏回春”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游历九州到处挑战强者的流浪拳师，因经常以拳硬撼刀剑的疯狂战斗方式，被称之为“李铁拳”，而真名早已被人遗忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历九州的杀手组织摘星楼楼主，无人知道其真实身份，亦或是人还是傀儡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜国郡主，因不甘皇宫的寂寞，经常女扮男装仗剑走江湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕剑宗大师姐，亦是长生剑客小师妹，暗恋叶长生，努力追寻其脚步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,13 +288,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,19 +597,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -510,39 +620,43 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -552,54 +666,301 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C34">
-      <formula1>"cuprum,silver,gold"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F66">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G66">
       <formula1>"blue,green,purple,red"</formula1>
     </dataValidation>
   </dataValidations>
@@ -612,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -631,18 +992,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -653,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -661,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -672,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -683,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -694,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -705,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,50 +201,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>姜悦儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜国小公主，姜王晚年所生的掌上明珠，出身高贵却毫不跋扈，性格单纯可爱，受举国宠爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜国国师、姜王亲弟，当年对王位无意，只身前往海外仙山寻求仙法，后因越国国师司徒翁对姜国的威胁，回到姜国成为国师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐世墨家家主，传承有神鬼莫测的机关术，传闻可一人攻一城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越国国师、邪宗弃徒，小时候被邪宗宗主抱回宗门抚养成人，后因理念不同叛出邪宗，成为越国国师，曾经崇拜长生剑客，后因其灭邪宗而有所怨恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕剑宗大师兄叶长生，长生剑客只剑求长生，一生放荡不羁，酒不离手，曾醉上邪宗，一人一剑屠灭整个邪宗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游历九州的神医苏平安，立志悬壶济世，下至平民百姓，上至王侯将相，均受过其恩惠，一手妙手回春的医术，人们尊称其为“苏回春”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游历九州到处挑战强者的流浪拳师，因经常以拳硬撼刀剑的疯狂战斗方式，被称之为“李铁拳”，而真名早已被人遗忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历九州的杀手组织摘星楼楼主，无人知道其真实身份，亦或是人还是傀儡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜国郡主，因不甘皇宫的寂寞，经常女扮男装仗剑走江湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕剑宗大师姐，亦是长生剑客小师妹，暗恋叶长生，努力追寻其脚步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>card1</t>
-  </si>
-  <si>
-    <t>姜悦儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜国小公主，姜王晚年所生的掌上明珠，出身高贵却毫不跋扈，性格单纯可爱，受举国宠爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜国国师、姜王亲弟，当年对王位无意，只身前往海外仙山寻求仙法，后因越国国师司徒翁对姜国的威胁，回到姜国成为国师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐世墨家家主，传承有神鬼莫测的机关术，传闻可一人攻一城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越国国师、邪宗弃徒，小时候被邪宗宗主抱回宗门抚养成人，后因理念不同叛出邪宗，成为越国国师，曾经崇拜长生剑客，后因其灭邪宗而有所怨恨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奕剑宗大师兄叶长生，长生剑客只剑求长生，一生放荡不羁，酒不离手，曾醉上邪宗，一人一剑屠灭整个邪宗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游历九州的神医苏平安，立志悬壶济世，下至平民百姓，上至王侯将相，均受过其恩惠，一手妙手回春的医术，人们尊称其为“苏回春”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游历九州到处挑战强者的流浪拳师，因经常以拳硬撼刀剑的疯狂战斗方式，被称之为“李铁拳”，而真名早已被人遗忘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历九州的杀手组织摘星楼楼主，无人知道其真实身份，亦或是人还是傀儡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜国郡主，因不甘皇宫的寂寞，经常女扮男装仗剑走江湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奕剑宗大师姐，亦是长生剑客小师妹，暗恋叶长生，努力追寻其脚步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +633,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
@@ -721,7 +754,7 @@
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>30</v>
@@ -741,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
@@ -767,7 +800,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>29</v>
@@ -778,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -787,10 +820,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -810,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>28</v>
@@ -833,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
@@ -856,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>28</v>
@@ -879,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>29</v>
@@ -902,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>30</v>
@@ -925,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>28</v>
@@ -948,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>29</v>

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F1C794-2835-442B-A3FD-340712B3C02F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌表" sheetId="3" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,46 +246,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>card2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>card3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>card4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>card5</t>
+  </si>
+  <si>
+    <t>card6</t>
+  </si>
+  <si>
+    <t>card7</t>
+  </si>
+  <si>
+    <t>card8</t>
+  </si>
+  <si>
+    <t>card9</t>
+  </si>
+  <si>
+    <t>card10</t>
+  </si>
+  <si>
+    <t>card11</t>
+  </si>
+  <si>
+    <t>card12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,6 +420,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -454,6 +472,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -777,7 +812,7 @@
         <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -800,7 +835,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>29</v>
@@ -823,7 +858,7 @@
         <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -846,7 +881,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>28</v>
@@ -869,7 +904,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
@@ -892,7 +927,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>28</v>
@@ -915,7 +950,7 @@
         <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>29</v>
@@ -938,7 +973,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>30</v>
@@ -961,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>28</v>
@@ -984,7 +1019,7 @@
         <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>29</v>
@@ -993,7 +1028,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G66" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"blue,green,purple,red"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1003,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/tool/template/template.xlsx
+++ b/tool/template/template.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F1C794-2835-442B-A3FD-340712B3C02F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌表" sheetId="3" r:id="rId1"/>
@@ -69,7 +68,168 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美术资源所在AB包</t>
+    <t>tid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术图标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_icon_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能宝石五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>战天机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏回春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲛明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒翁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傀儡师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端木雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长生剑客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李铁拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙濯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天机营当代将主，只为在乱世中守护天机阁而存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海鲛人王子，为成为世间最强大的战士，毅然离开族群，独自来到九州追寻武道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜悦儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜国小公主，姜王晚年所生的掌上明珠，出身高贵却毫不跋扈，性格单纯可爱，受举国宠爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜国国师、姜王亲弟，当年对王位无意，只身前往海外仙山寻求仙法，后因越国国师司徒翁对姜国的威胁，回到姜国成为国师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐世墨家家主，传承有神鬼莫测的机关术，传闻可一人攻一城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越国国师、邪宗弃徒，小时候被邪宗宗主抱回宗门抚养成人，后因理念不同叛出邪宗，成为越国国师，曾经崇拜长生剑客，后因其灭邪宗而有所怨恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕剑宗大师兄叶长生，长生剑客只剑求长生，一生放荡不羁，酒不离手，曾醉上邪宗，一人一剑屠灭整个邪宗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游历九州的神医苏平安，立志悬壶济世，下至平民百姓，上至王侯将相，均受过其恩惠，一手妙手回春的医术，人们尊称其为“苏回春”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游历九州到处挑战强者的流浪拳师，因经常以拳硬撼刀剑的疯狂战斗方式，被称之为“李铁拳”，而真名早已被人遗忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历九州的杀手组织摘星楼楼主，无人知道其真实身份，亦或是人还是傀儡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜国郡主，因不甘皇宫的寂寞，经常女扮男装仗剑走江湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕剑宗大师姐，亦是长生剑客小师妹，暗恋叶长生，努力追寻其脚步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术卡牌图所在AB包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,165 +245,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术图标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_icon_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能宝石一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能宝石二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能宝石三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能宝石四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能宝石五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>战天机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏回春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲛明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司徒翁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傀儡师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端木雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长生剑客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李铁拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙濯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天机营当代将主，只为在乱世中守护天机阁而存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南海鲛人王子，为成为世间最强大的战士，毅然离开族群，独自来到九州追寻武道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜悦儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜国小公主，姜王晚年所生的掌上明珠，出身高贵却毫不跋扈，性格单纯可爱，受举国宠爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜国国师、姜王亲弟，当年对王位无意，只身前往海外仙山寻求仙法，后因越国国师司徒翁对姜国的威胁，回到姜国成为国师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐世墨家家主，传承有神鬼莫测的机关术，传闻可一人攻一城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越国国师、邪宗弃徒，小时候被邪宗宗主抱回宗门抚养成人，后因理念不同叛出邪宗，成为越国国师，曾经崇拜长生剑客，后因其灭邪宗而有所怨恨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奕剑宗大师兄叶长生，长生剑客只剑求长生，一生放荡不羁，酒不离手，曾醉上邪宗，一人一剑屠灭整个邪宗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游历九州的神医苏平安，立志悬壶济世，下至平民百姓，上至王侯将相，均受过其恩惠，一手妙手回春的医术，人们尊称其为“苏回春”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游历九州到处挑战强者的流浪拳师，因经常以拳硬撼刀剑的疯狂战斗方式，被称之为“李铁拳”，而真名早已被人遗忘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历九州的杀手组织摘星楼楼主，无人知道其真实身份，亦或是人还是傀儡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜国郡主，因不甘皇宫的寂寞，经常女扮男装仗剑走江湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奕剑宗大师姐，亦是长生剑客小师妹，暗恋叶长生，努力追寻其脚步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>card4</t>
+  </si>
+  <si>
+    <t>card5</t>
+  </si>
+  <si>
+    <t>card6</t>
+  </si>
+  <si>
+    <t>card7</t>
+  </si>
+  <si>
+    <t>card8</t>
+  </si>
+  <si>
+    <t>card9</t>
+  </si>
+  <si>
+    <t>card10</t>
+  </si>
+  <si>
+    <t>card11</t>
+  </si>
+  <si>
+    <t>card12</t>
   </si>
   <si>
     <t>card2</t>
@@ -252,40 +278,12 @@
   <si>
     <t>card3</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card5</t>
-  </si>
-  <si>
-    <t>card6</t>
-  </si>
-  <si>
-    <t>card7</t>
-  </si>
-  <si>
-    <t>card8</t>
-  </si>
-  <si>
-    <t>card9</t>
-  </si>
-  <si>
-    <t>card10</t>
-  </si>
-  <si>
-    <t>card11</t>
-  </si>
-  <si>
-    <t>card12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,7 +343,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,23 +418,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -472,23 +453,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -664,11 +628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -676,8 +640,8 @@
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -694,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -705,22 +669,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -734,16 +698,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -754,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -763,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -777,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -786,13 +750,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -800,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -809,10 +773,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -823,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -832,13 +796,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -846,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -855,10 +819,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -869,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -878,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -892,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -901,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -915,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -924,13 +888,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -938,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -947,13 +911,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -961,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -970,13 +934,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -984,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -993,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1007,7 +971,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1016,19 +980,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G66" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G66">
       <formula1>"blue,green,purple,red"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1038,7 +1002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1060,18 +1024,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1082,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1090,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1101,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1112,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1123,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1134,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
